--- a/Resources/OpcodeTable.xlsx
+++ b/Resources/OpcodeTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29b3b8207ead18/Documents/School/PSU/ECE585-DesignOfMicroprocessorSystems/Assignments/ECE585FinalProjectFolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\OneDrive\Documents\School\PSU\ECE585-DesignOfMicroprocessorSystems\Assignments\ECE585FinalProjectFolder\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{6AFC13BB-1A4D-4477-9B4D-0D742F0A35D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7108EC4F-BD8F-4C2A-9D58-C611C258702E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F937D524-CF87-414A-96AB-0DDA0686CE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{921A7D78-8BCB-480C-ADD6-45E39022DFDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DE0B00EC-38B1-4895-9387-2A6E28E93FB8}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="ME - Personal View" guid="{1BB0CE19-F961-4D67-A866-68EBB1A3578E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1066" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="66">
   <si>
     <t>OpCode</t>
   </si>
@@ -166,6 +169,69 @@
   </si>
   <si>
     <t>BusRd/FLUSH</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Read request from L1 data cache</t>
+  </si>
+  <si>
+    <t>Write request from L1 data cache</t>
+  </si>
+  <si>
+    <t>Read request from L1 instruction cache</t>
+  </si>
+  <si>
+    <t>Snooped Invalidate command.</t>
+  </si>
+  <si>
+    <t>Bus-Side</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Snooped read request.</t>
+  </si>
+  <si>
+    <t>Snooped read with intent to modify request</t>
+  </si>
+  <si>
+    <t>Print contents and state of each valid cache line (allow subsequent trace activity)</t>
+  </si>
+  <si>
+    <t>FLUSH</t>
+  </si>
+  <si>
+    <t>LLC Processor-Side</t>
+  </si>
+  <si>
+    <t>Snooped write request (not a result of our LLC BusRdX, which would be handled by GetSnoopResult)</t>
+  </si>
+  <si>
+    <t>Clear the cache and reset all state (Invalidates all Valid lines &amp; will Flush modified lines)</t>
+  </si>
+  <si>
+    <t>Memory Supplier</t>
+  </si>
+  <si>
+    <t>DRAM</t>
+  </si>
+  <si>
+    <t>Other Cache</t>
+  </si>
+  <si>
+    <t>Modified Other Cache</t>
+  </si>
+  <si>
+    <t>Correctness?</t>
+  </si>
+  <si>
+    <t>Snarfed Other Cache</t>
+  </si>
+  <si>
+    <t>LLC Snarfed</t>
   </si>
 </sst>
 </file>
@@ -189,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -224,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +308,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,12 +634,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DC5D19-3A70-4EEE-BEEA-64360FBF4F8B}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:N25"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +655,11 @@
     <col min="12" max="12" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,8 +702,11 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -663,8 +749,11 @@
       <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -707,8 +796,9 @@
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -751,8 +841,9 @@
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -795,8 +886,11 @@
       <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -804,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -813,19 +907,19 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
@@ -834,36 +928,39 @@
         <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>17</v>
@@ -878,13 +975,14 @@
         <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -892,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -901,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -919,16 +1017,17 @@
         <v>25</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -936,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -945,10 +1044,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -963,16 +1062,19 @@
         <v>25</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -980,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -989,10 +1091,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
@@ -1007,71 +1109,77 @@
         <v>25</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -1083,10 +1191,10 @@
         <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>25</v>
@@ -1103,19 +1211,20 @@
       <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -1127,10 +1236,10 @@
         <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>25</v>
@@ -1147,8 +1256,9 @@
       <c r="N13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1168,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>25</v>
@@ -1189,36 +1299,39 @@
         <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>25</v>
@@ -1227,39 +1340,40 @@
         <v>25</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>15</v>
@@ -1271,39 +1385,40 @@
         <v>25</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -1315,24 +1430,27 @@
         <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>25</v>
@@ -1341,13 +1459,13 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>14</v>
@@ -1359,16 +1477,19 @@
         <v>25</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -1376,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -1388,22 +1509,22 @@
         <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>24</v>
@@ -1411,19 +1532,20 @@
       <c r="N19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -1432,33 +1554,34 @@
         <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1467,42 +1590,43 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -1520,16 +1644,16 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>37</v>
@@ -1538,101 +1662,112 @@
         <v>38</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -1640,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>25</v>
@@ -1661,13 +1796,13 @@
         <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>32</v>
@@ -1675,9 +1810,290 @@
       <c r="N25" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{1BB0CE19-F961-4D67-A866-68EBB1A3578E}" scale="78">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>